--- a/Data/EC/NIT-8909224474.xlsx
+++ b/Data/EC/NIT-8909224474.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6933411-5F09-4DB9-975A-9459252C4E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C86B042-EBF2-4837-A7A2-3A9DC306441A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{07E3E6F4-EFBD-43F0-9F21-692B569D21A0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D96AF807-B450-49B2-8442-443FB2235763}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,60 +65,147 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73506597</t>
+  </si>
+  <si>
+    <t>YEFFRIS DIAZ VASQUEZ</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>84457473</t>
+  </si>
+  <si>
+    <t>DIOMEDES ALFONSO CERPA CASTRO</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>3892489</t>
+  </si>
+  <si>
+    <t>MISAEL SANMARTIN CORTES</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1049928996</t>
+  </si>
+  <si>
+    <t>OCTAVIO LUIS SEGRERA RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>1049939207</t>
+  </si>
+  <si>
+    <t>GEIDER LUIS MORENO BANQUEZ</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1049924600</t>
+  </si>
+  <si>
+    <t>JHON ALEXANDER ANGULO SIMARRA</t>
+  </si>
+  <si>
+    <t>1050948377</t>
+  </si>
+  <si>
+    <t>KEVIN ACOSTA GARCIA</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>73507013</t>
+  </si>
+  <si>
+    <t>MARLON EDUARDO MERCADO BUELVAS</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
     <t>63301844</t>
   </si>
   <si>
     <t>RAMONA EMIRA VARGAS DE CONDE</t>
   </si>
   <si>
-    <t>1802</t>
-  </si>
-  <si>
     <t>1044932206</t>
   </si>
   <si>
     <t>JESUS MANUEL MAZA RODRIGUEZ</t>
   </si>
   <si>
-    <t>73506597</t>
-  </si>
-  <si>
-    <t>YEFFRIS DIAZ VASQUEZ</t>
-  </si>
-  <si>
     <t>1002058298</t>
   </si>
   <si>
     <t>JAIRO LUIS ZAMBRANO VEGA</t>
   </si>
   <si>
+    <t>1805</t>
+  </si>
+  <si>
     <t>1804</t>
   </si>
   <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1050948377</t>
-  </si>
-  <si>
-    <t>KEVIN ACOSTA GARCIA</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>73507013</t>
-  </si>
-  <si>
-    <t>MARLON EDUARDO MERCADO BUELVAS</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
     <t>9159128</t>
   </si>
   <si>
@@ -131,6 +218,18 @@
     <t>ARMANDO RAFAEL OROZCO MARTINEZ</t>
   </si>
   <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
     <t>1810</t>
   </si>
   <si>
@@ -140,31 +239,28 @@
     <t>LEONARDO HERRERA MAZA</t>
   </si>
   <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
     <t>1002322565</t>
   </si>
   <si>
     <t>YEISON ALONSO ESTREMOR BERRIO</t>
   </si>
   <si>
-    <t>1902</t>
-  </si>
-  <si>
     <t>1003430779</t>
   </si>
   <si>
     <t>JUNIOR GABRIEL RAMIREZ PASTRANA</t>
   </si>
   <si>
-    <t>1903</t>
+    <t>1049936043</t>
+  </si>
+  <si>
+    <t>LUIS FERNANDO GALAN NUÑEZ</t>
+  </si>
+  <si>
+    <t>1052702541</t>
+  </si>
+  <si>
+    <t>LUIS ALFREDO DE LA PEÑA VEGA</t>
   </si>
   <si>
     <t>1044934873</t>
@@ -173,106 +269,10 @@
     <t>ANTHONY BATISTA VASQUEZ</t>
   </si>
   <si>
-    <t>1049939207</t>
-  </si>
-  <si>
-    <t>GEIDER LUIS MORENO BANQUEZ</t>
-  </si>
-  <si>
-    <t>1052702541</t>
-  </si>
-  <si>
-    <t>LUIS ALFREDO DE LA PEÑA VEGA</t>
-  </si>
-  <si>
-    <t>1049936043</t>
-  </si>
-  <si>
-    <t>LUIS FERNANDO GALAN NUÑEZ</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1049924600</t>
-  </si>
-  <si>
-    <t>JHON ALEXANDER ANGULO SIMARRA</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>3892489</t>
-  </si>
-  <si>
-    <t>MISAEL SANMARTIN CORTES</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>84457473</t>
-  </si>
-  <si>
-    <t>DIOMEDES ALFONSO CERPA CASTRO</t>
-  </si>
-  <si>
     <t>77020825</t>
   </si>
   <si>
     <t>OLMEDO SEGUNDO POLO ESCORCIA</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1049928996</t>
-  </si>
-  <si>
-    <t>OCTAVIO LUIS SEGRERA RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -686,7 +686,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E93A9F8C-B80F-6D53-5A80-12FB76E46D1F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9C923AF-0BEA-3312-626A-5CE4F5DD328F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1037,7 +1037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071BB9C9-3A34-4DF2-A31E-0B946E5EF7A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39791E2A-C0D8-443F-A325-30104A3112DF}">
   <dimension ref="B2:J116"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1215,10 +1215,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31280</v>
+        <v>83800</v>
       </c>
       <c r="G16" s="18">
-        <v>782000</v>
+        <v>2095000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1235,13 +1235,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>36560</v>
+        <v>88840</v>
       </c>
       <c r="G17" s="18">
-        <v>914000</v>
+        <v>2221000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1252,19 +1252,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F18" s="18">
-        <v>83800</v>
+        <v>88840</v>
       </c>
       <c r="G18" s="18">
-        <v>2095000</v>
+        <v>2221000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1275,19 +1275,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>18</v>
-      </c>
       <c r="F19" s="18">
-        <v>30238</v>
+        <v>88840</v>
       </c>
       <c r="G19" s="18">
-        <v>782000</v>
+        <v>2221000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1298,19 +1298,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F20" s="18">
-        <v>31280</v>
+        <v>88840</v>
       </c>
       <c r="G20" s="18">
-        <v>782000</v>
+        <v>2221000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1321,19 +1321,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>26067</v>
+        <v>88840</v>
       </c>
       <c r="G21" s="18">
-        <v>782000</v>
+        <v>2221000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1344,19 +1344,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
-        <v>23982</v>
+        <v>88840</v>
       </c>
       <c r="G22" s="18">
-        <v>795400</v>
+        <v>2221000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1367,19 +1367,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
-        <v>5213</v>
+        <v>88840</v>
       </c>
       <c r="G23" s="18">
-        <v>795400</v>
+        <v>2221000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1390,19 +1390,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
-        <v>48533</v>
+        <v>88840</v>
       </c>
       <c r="G24" s="18">
-        <v>1461000</v>
+        <v>2221000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1413,19 +1413,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
-        <v>48533</v>
+        <v>88840</v>
       </c>
       <c r="G25" s="18">
-        <v>1461000</v>
+        <v>2221000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1436,19 +1436,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
-        <v>29540</v>
+        <v>88840</v>
       </c>
       <c r="G26" s="18">
-        <v>1660000</v>
+        <v>2221000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1459,19 +1459,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
-        <v>15640</v>
+        <v>88840</v>
       </c>
       <c r="G27" s="18">
-        <v>964875</v>
+        <v>2221000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1482,19 +1482,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
-        <v>31280</v>
+        <v>88840</v>
       </c>
       <c r="G28" s="18">
-        <v>964875</v>
+        <v>2221000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1505,19 +1505,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
-        <v>59080</v>
+        <v>88840</v>
       </c>
       <c r="G29" s="18">
-        <v>1660000</v>
+        <v>2221000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1528,19 +1528,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
-        <v>31280</v>
+        <v>88840</v>
       </c>
       <c r="G30" s="18">
-        <v>964875</v>
+        <v>2221000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1551,19 +1551,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
-        <v>59080</v>
+        <v>88840</v>
       </c>
       <c r="G31" s="18">
-        <v>1660000</v>
+        <v>2221000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1574,19 +1574,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>36</v>
-      </c>
       <c r="F32" s="18">
-        <v>59080</v>
+        <v>88840</v>
       </c>
       <c r="G32" s="18">
-        <v>1660000</v>
+        <v>2221000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1597,19 +1597,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F33" s="18">
-        <v>27667</v>
+        <v>33200</v>
       </c>
       <c r="G33" s="18">
-        <v>878000</v>
+        <v>830000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1620,19 +1620,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F34" s="18">
-        <v>59080</v>
+        <v>33200</v>
       </c>
       <c r="G34" s="18">
-        <v>1660000</v>
+        <v>830000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1643,16 +1643,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F35" s="18">
-        <v>27667</v>
+        <v>33200</v>
       </c>
       <c r="G35" s="18">
         <v>830000</v>
@@ -1666,16 +1666,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F36" s="18">
-        <v>27667</v>
+        <v>33200</v>
       </c>
       <c r="G36" s="18">
         <v>830000</v>
@@ -1689,13 +1689,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
         <v>33200</v>
@@ -1712,19 +1712,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F38" s="18">
-        <v>59080</v>
+        <v>36360</v>
       </c>
       <c r="G38" s="18">
-        <v>1660000</v>
+        <v>964000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1735,19 +1735,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F39" s="18">
-        <v>33072</v>
+        <v>33200</v>
       </c>
       <c r="G39" s="18">
-        <v>1378000</v>
+        <v>830000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1758,19 +1758,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="F40" s="18">
-        <v>27667</v>
+        <v>33200</v>
       </c>
       <c r="G40" s="18">
-        <v>878000</v>
+        <v>830000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1781,13 +1781,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="F41" s="18">
         <v>33200</v>
@@ -1804,19 +1804,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="F42" s="18">
-        <v>59080</v>
+        <v>33200</v>
       </c>
       <c r="G42" s="18">
-        <v>1660000</v>
+        <v>830000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1827,13 +1827,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="F43" s="18">
         <v>33200</v>
@@ -1850,19 +1850,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="F44" s="18">
-        <v>27560</v>
+        <v>33200</v>
       </c>
       <c r="G44" s="18">
-        <v>1378000</v>
+        <v>830000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1873,13 +1873,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F45" s="18">
         <v>33200</v>
@@ -1896,13 +1896,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="F46" s="18">
         <v>33200</v>
@@ -1919,13 +1919,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="F47" s="18">
         <v>33200</v>
@@ -1942,19 +1942,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F48" s="18">
-        <v>59080</v>
+        <v>33200</v>
       </c>
       <c r="G48" s="18">
-        <v>1660000</v>
+        <v>830000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1965,13 +1965,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="F49" s="18">
         <v>33200</v>
@@ -1988,13 +1988,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="F50" s="18">
         <v>55120</v>
@@ -2011,19 +2011,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="F51" s="18">
-        <v>88840</v>
+        <v>55120</v>
       </c>
       <c r="G51" s="18">
-        <v>2221000</v>
+        <v>1378000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2034,19 +2034,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>57</v>
-      </c>
       <c r="F52" s="18">
-        <v>59080</v>
+        <v>55120</v>
       </c>
       <c r="G52" s="18">
-        <v>1660000</v>
+        <v>1378000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2057,19 +2057,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="F53" s="18">
-        <v>65390</v>
+        <v>27560</v>
       </c>
       <c r="G53" s="18">
-        <v>3713000</v>
+        <v>1378000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2080,19 +2080,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F54" s="18">
-        <v>33200</v>
+        <v>5213</v>
       </c>
       <c r="G54" s="18">
-        <v>830000</v>
+        <v>795400</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2103,19 +2103,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F55" s="18">
-        <v>55120</v>
+        <v>23982</v>
       </c>
       <c r="G55" s="18">
-        <v>1378000</v>
+        <v>795400</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2126,19 +2126,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="F56" s="18">
-        <v>33200</v>
+        <v>48533</v>
       </c>
       <c r="G56" s="18">
-        <v>830000</v>
+        <v>1461000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2149,19 +2149,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="F57" s="18">
-        <v>59080</v>
+        <v>31280</v>
       </c>
       <c r="G57" s="18">
-        <v>1660000</v>
+        <v>782000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2172,19 +2172,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="F58" s="18">
-        <v>55120</v>
+        <v>36560</v>
       </c>
       <c r="G58" s="18">
-        <v>1378000</v>
+        <v>914000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2195,19 +2195,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="F59" s="18">
-        <v>140120</v>
+        <v>26067</v>
       </c>
       <c r="G59" s="18">
-        <v>3713000</v>
+        <v>782000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2218,19 +2218,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F60" s="18">
-        <v>33200</v>
+        <v>31280</v>
       </c>
       <c r="G60" s="18">
-        <v>830000</v>
+        <v>782000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2241,19 +2241,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F61" s="18">
-        <v>88840</v>
+        <v>30238</v>
       </c>
       <c r="G61" s="18">
-        <v>2221000</v>
+        <v>782000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2264,19 +2264,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F62" s="18">
-        <v>33200</v>
+        <v>48533</v>
       </c>
       <c r="G62" s="18">
-        <v>830000</v>
+        <v>1461000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2287,19 +2287,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="F63" s="18">
-        <v>55120</v>
+        <v>59080</v>
       </c>
       <c r="G63" s="18">
-        <v>1378000</v>
+        <v>1660000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2310,19 +2310,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="F64" s="18">
-        <v>140120</v>
+        <v>59080</v>
       </c>
       <c r="G64" s="18">
-        <v>3713000</v>
+        <v>1660000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2333,19 +2333,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="F65" s="18">
-        <v>55120</v>
+        <v>59080</v>
       </c>
       <c r="G65" s="18">
-        <v>1378000</v>
+        <v>1660000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2356,19 +2356,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="F66" s="18">
-        <v>33200</v>
+        <v>59080</v>
       </c>
       <c r="G66" s="18">
-        <v>830000</v>
+        <v>1660000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2379,13 +2379,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="F67" s="18">
         <v>59080</v>
@@ -2408,13 +2408,13 @@
         <v>59</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F68" s="18">
-        <v>88840</v>
+        <v>59080</v>
       </c>
       <c r="G68" s="18">
-        <v>2221000</v>
+        <v>1660000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2425,13 +2425,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="F69" s="18">
         <v>59080</v>
@@ -2448,19 +2448,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="F70" s="18">
-        <v>140120</v>
+        <v>59080</v>
       </c>
       <c r="G70" s="18">
-        <v>3713000</v>
+        <v>1660000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2471,19 +2471,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="F71" s="18">
-        <v>33200</v>
+        <v>59080</v>
       </c>
       <c r="G71" s="18">
-        <v>830000</v>
+        <v>1660000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2500,13 +2500,13 @@
         <v>59</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="F72" s="18">
-        <v>88840</v>
+        <v>59080</v>
       </c>
       <c r="G72" s="18">
-        <v>2221000</v>
+        <v>1660000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2517,19 +2517,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="F73" s="18">
-        <v>33200</v>
+        <v>59080</v>
       </c>
       <c r="G73" s="18">
-        <v>830000</v>
+        <v>1660000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2540,19 +2540,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F74" s="18">
-        <v>55120</v>
+        <v>59080</v>
       </c>
       <c r="G74" s="18">
-        <v>1378000</v>
+        <v>1660000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2569,13 +2569,13 @@
         <v>59</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F75" s="18">
-        <v>88840</v>
+        <v>59080</v>
       </c>
       <c r="G75" s="18">
-        <v>2221000</v>
+        <v>1660000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2586,19 +2586,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F76" s="18">
-        <v>140120</v>
+        <v>59080</v>
       </c>
       <c r="G76" s="18">
-        <v>3713000</v>
+        <v>1660000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2609,19 +2609,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F77" s="18">
-        <v>55120</v>
+        <v>59080</v>
       </c>
       <c r="G77" s="18">
-        <v>1378000</v>
+        <v>1660000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2632,19 +2632,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F78" s="18">
-        <v>33200</v>
+        <v>29540</v>
       </c>
       <c r="G78" s="18">
-        <v>830000</v>
+        <v>1660000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2655,19 +2655,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F79" s="18">
-        <v>59080</v>
+        <v>31280</v>
       </c>
       <c r="G79" s="18">
-        <v>1660000</v>
+        <v>964875</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2678,19 +2678,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F80" s="18">
-        <v>33200</v>
+        <v>31280</v>
       </c>
       <c r="G80" s="18">
-        <v>830000</v>
+        <v>964875</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2701,19 +2701,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F81" s="18">
-        <v>88840</v>
+        <v>15640</v>
       </c>
       <c r="G81" s="18">
-        <v>2221000</v>
+        <v>964875</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2724,19 +2724,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F82" s="18">
-        <v>59080</v>
+        <v>27667</v>
       </c>
       <c r="G82" s="18">
-        <v>1660000</v>
+        <v>878000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2747,19 +2747,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="F83" s="18">
-        <v>140120</v>
+        <v>33200</v>
       </c>
       <c r="G83" s="18">
-        <v>3713000</v>
+        <v>830000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2770,19 +2770,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="F84" s="18">
-        <v>55120</v>
+        <v>33200</v>
       </c>
       <c r="G84" s="18">
-        <v>1378000</v>
+        <v>830000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2793,19 +2793,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="F85" s="18">
-        <v>140120</v>
+        <v>27667</v>
       </c>
       <c r="G85" s="18">
-        <v>3713000</v>
+        <v>830000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2816,19 +2816,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="F86" s="18">
-        <v>88840</v>
+        <v>27667</v>
       </c>
       <c r="G86" s="18">
-        <v>2221000</v>
+        <v>878000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2839,19 +2839,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="F87" s="18">
-        <v>59080</v>
+        <v>55120</v>
       </c>
       <c r="G87" s="18">
-        <v>1660000</v>
+        <v>1378000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2862,13 +2862,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="F88" s="18">
         <v>55120</v>
@@ -2885,19 +2885,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="F89" s="18">
-        <v>33200</v>
+        <v>55120</v>
       </c>
       <c r="G89" s="18">
-        <v>830000</v>
+        <v>1378000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2908,19 +2908,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="F90" s="18">
-        <v>59080</v>
+        <v>55120</v>
       </c>
       <c r="G90" s="18">
-        <v>1660000</v>
+        <v>1378000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2931,19 +2931,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="F91" s="18">
-        <v>36360</v>
+        <v>55120</v>
       </c>
       <c r="G91" s="18">
-        <v>964000</v>
+        <v>1378000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2954,19 +2954,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="F92" s="18">
-        <v>33200</v>
+        <v>55120</v>
       </c>
       <c r="G92" s="18">
-        <v>830000</v>
+        <v>1378000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2977,13 +2977,13 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="F93" s="18">
         <v>55120</v>
@@ -3000,19 +3000,19 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="F94" s="18">
-        <v>140120</v>
+        <v>55120</v>
       </c>
       <c r="G94" s="18">
-        <v>3713000</v>
+        <v>1378000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
@@ -3023,19 +3023,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="F95" s="18">
-        <v>88840</v>
+        <v>55120</v>
       </c>
       <c r="G95" s="18">
-        <v>2221000</v>
+        <v>1378000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3046,13 +3046,13 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="F96" s="18">
         <v>55120</v>
@@ -3069,19 +3069,19 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="F97" s="18">
-        <v>88840</v>
+        <v>55120</v>
       </c>
       <c r="G97" s="18">
-        <v>2221000</v>
+        <v>1378000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3092,13 +3092,13 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="F98" s="18">
         <v>55120</v>
@@ -3115,19 +3115,19 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="F99" s="18">
-        <v>88840</v>
+        <v>55120</v>
       </c>
       <c r="G99" s="18">
-        <v>2221000</v>
+        <v>1378000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3138,19 +3138,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="F100" s="18">
-        <v>88840</v>
+        <v>55120</v>
       </c>
       <c r="G100" s="18">
-        <v>2221000</v>
+        <v>1378000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3161,16 +3161,16 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="F101" s="18">
-        <v>55120</v>
+        <v>33072</v>
       </c>
       <c r="G101" s="18">
         <v>1378000</v>
@@ -3184,19 +3184,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F102" s="18">
-        <v>88840</v>
+        <v>27667</v>
       </c>
       <c r="G102" s="18">
-        <v>2221000</v>
+        <v>830000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3207,19 +3207,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="F103" s="18">
-        <v>55120</v>
+        <v>140120</v>
       </c>
       <c r="G103" s="18">
-        <v>1378000</v>
+        <v>3713000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3230,19 +3230,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="F104" s="18">
-        <v>55120</v>
+        <v>140120</v>
       </c>
       <c r="G104" s="18">
-        <v>1378000</v>
+        <v>3713000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3253,19 +3253,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="F105" s="18">
-        <v>88840</v>
+        <v>140120</v>
       </c>
       <c r="G105" s="18">
-        <v>2221000</v>
+        <v>3713000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3276,19 +3276,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="F106" s="18">
-        <v>88840</v>
+        <v>140120</v>
       </c>
       <c r="G106" s="18">
-        <v>2221000</v>
+        <v>3713000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3299,19 +3299,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="F107" s="18">
-        <v>55120</v>
+        <v>140120</v>
       </c>
       <c r="G107" s="18">
-        <v>1378000</v>
+        <v>3713000</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3322,19 +3322,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="F108" s="18">
-        <v>88840</v>
+        <v>140120</v>
       </c>
       <c r="G108" s="18">
-        <v>2221000</v>
+        <v>3713000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3345,19 +3345,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="F109" s="18">
-        <v>55120</v>
+        <v>140120</v>
       </c>
       <c r="G109" s="18">
-        <v>1378000</v>
+        <v>3713000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3368,19 +3368,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="22" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D110" s="23" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="E110" s="22" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="F110" s="24">
-        <v>88840</v>
+        <v>65390</v>
       </c>
       <c r="G110" s="24">
-        <v>2221000</v>
+        <v>3713000</v>
       </c>
       <c r="H110" s="25"/>
       <c r="I110" s="25"/>

--- a/Data/EC/NIT-8909224474.xlsx
+++ b/Data/EC/NIT-8909224474.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C86B042-EBF2-4837-A7A2-3A9DC306441A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0895D4B-FD0B-41A4-9659-60A56F9D4273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D96AF807-B450-49B2-8442-443FB2235763}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{474E821F-F269-469B-8E61-A3D5642B20BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -74,205 +74,205 @@
     <t>1802</t>
   </si>
   <si>
+    <t>63301844</t>
+  </si>
+  <si>
+    <t>RAMONA EMIRA VARGAS DE CONDE</t>
+  </si>
+  <si>
+    <t>1044932206</t>
+  </si>
+  <si>
+    <t>JESUS MANUEL MAZA RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>1002058298</t>
+  </si>
+  <si>
+    <t>JAIRO LUIS ZAMBRANO VEGA</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1050948377</t>
+  </si>
+  <si>
+    <t>KEVIN ACOSTA GARCIA</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>73507013</t>
+  </si>
+  <si>
+    <t>MARLON EDUARDO MERCADO BUELVAS</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>9159128</t>
+  </si>
+  <si>
+    <t>JOSE LUIS URRUCHURTO CALVO</t>
+  </si>
+  <si>
+    <t>72344706</t>
+  </si>
+  <si>
+    <t>ARMANDO RAFAEL OROZCO MARTINEZ</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1002507922</t>
+  </si>
+  <si>
+    <t>LEONARDO HERRERA MAZA</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1002322565</t>
+  </si>
+  <si>
+    <t>YEISON ALONSO ESTREMOR BERRIO</t>
+  </si>
+  <si>
+    <t>1049939207</t>
+  </si>
+  <si>
+    <t>GEIDER LUIS MORENO BANQUEZ</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1003430779</t>
+  </si>
+  <si>
+    <t>JUNIOR GABRIEL RAMIREZ PASTRANA</t>
+  </si>
+  <si>
+    <t>1049936043</t>
+  </si>
+  <si>
+    <t>LUIS FERNANDO GALAN NUÑEZ</t>
+  </si>
+  <si>
+    <t>1052702541</t>
+  </si>
+  <si>
+    <t>LUIS ALFREDO DE LA PEÑA VEGA</t>
+  </si>
+  <si>
+    <t>1044934873</t>
+  </si>
+  <si>
+    <t>ANTHONY BATISTA VASQUEZ</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>3892489</t>
+  </si>
+  <si>
+    <t>MISAEL SANMARTIN CORTES</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1049924600</t>
+  </si>
+  <si>
+    <t>JHON ALEXANDER ANGULO SIMARRA</t>
+  </si>
+  <si>
     <t>84457473</t>
   </si>
   <si>
     <t>DIOMEDES ALFONSO CERPA CASTRO</t>
   </si>
   <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>77020825</t>
+  </si>
+  <si>
+    <t>OLMEDO SEGUNDO POLO ESCORCIA</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1049928996</t>
+  </si>
+  <si>
+    <t>OCTAVIO LUIS SEGRERA RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
     <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>3892489</t>
-  </si>
-  <si>
-    <t>MISAEL SANMARTIN CORTES</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1049928996</t>
-  </si>
-  <si>
-    <t>OCTAVIO LUIS SEGRERA RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>1049939207</t>
-  </si>
-  <si>
-    <t>GEIDER LUIS MORENO BANQUEZ</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1049924600</t>
-  </si>
-  <si>
-    <t>JHON ALEXANDER ANGULO SIMARRA</t>
-  </si>
-  <si>
-    <t>1050948377</t>
-  </si>
-  <si>
-    <t>KEVIN ACOSTA GARCIA</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>73507013</t>
-  </si>
-  <si>
-    <t>MARLON EDUARDO MERCADO BUELVAS</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>63301844</t>
-  </si>
-  <si>
-    <t>RAMONA EMIRA VARGAS DE CONDE</t>
-  </si>
-  <si>
-    <t>1044932206</t>
-  </si>
-  <si>
-    <t>JESUS MANUEL MAZA RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>1002058298</t>
-  </si>
-  <si>
-    <t>JAIRO LUIS ZAMBRANO VEGA</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>9159128</t>
-  </si>
-  <si>
-    <t>JOSE LUIS URRUCHURTO CALVO</t>
-  </si>
-  <si>
-    <t>72344706</t>
-  </si>
-  <si>
-    <t>ARMANDO RAFAEL OROZCO MARTINEZ</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1002507922</t>
-  </si>
-  <si>
-    <t>LEONARDO HERRERA MAZA</t>
-  </si>
-  <si>
-    <t>1002322565</t>
-  </si>
-  <si>
-    <t>YEISON ALONSO ESTREMOR BERRIO</t>
-  </si>
-  <si>
-    <t>1003430779</t>
-  </si>
-  <si>
-    <t>JUNIOR GABRIEL RAMIREZ PASTRANA</t>
-  </si>
-  <si>
-    <t>1049936043</t>
-  </si>
-  <si>
-    <t>LUIS FERNANDO GALAN NUÑEZ</t>
-  </si>
-  <si>
-    <t>1052702541</t>
-  </si>
-  <si>
-    <t>LUIS ALFREDO DE LA PEÑA VEGA</t>
-  </si>
-  <si>
-    <t>1044934873</t>
-  </si>
-  <si>
-    <t>ANTHONY BATISTA VASQUEZ</t>
-  </si>
-  <si>
-    <t>77020825</t>
-  </si>
-  <si>
-    <t>OLMEDO SEGUNDO POLO ESCORCIA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -371,7 +371,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -384,9 +386,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -586,23 +586,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -630,10 +630,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -686,7 +686,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9C923AF-0BEA-3312-626A-5CE4F5DD328F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60B05C1C-C5C7-3D23-15E7-FF8CB9515588}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1037,7 +1037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39791E2A-C0D8-443F-A325-30104A3112DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF758E7-C9C8-4B3E-876E-C69778E56F63}">
   <dimension ref="B2:J116"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1235,13 +1235,13 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>88840</v>
+        <v>31280</v>
       </c>
       <c r="G17" s="18">
-        <v>2221000</v>
+        <v>782000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1252,19 +1252,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>88840</v>
+        <v>36560</v>
       </c>
       <c r="G18" s="18">
-        <v>2221000</v>
+        <v>914000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1275,19 +1275,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F19" s="18">
-        <v>88840</v>
+        <v>30238</v>
       </c>
       <c r="G19" s="18">
-        <v>2221000</v>
+        <v>782000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1298,19 +1298,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F20" s="18">
-        <v>88840</v>
+        <v>31280</v>
       </c>
       <c r="G20" s="18">
-        <v>2221000</v>
+        <v>782000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1321,19 +1321,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F21" s="18">
-        <v>88840</v>
+        <v>23982</v>
       </c>
       <c r="G21" s="18">
-        <v>2221000</v>
+        <v>782000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1344,19 +1344,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F22" s="18">
-        <v>88840</v>
+        <v>26067</v>
       </c>
       <c r="G22" s="18">
-        <v>2221000</v>
+        <v>782000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1367,19 +1367,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F23" s="18">
-        <v>88840</v>
+        <v>5213</v>
       </c>
       <c r="G23" s="18">
-        <v>2221000</v>
+        <v>782000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1390,19 +1390,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F24" s="18">
-        <v>88840</v>
+        <v>48533</v>
       </c>
       <c r="G24" s="18">
-        <v>2221000</v>
+        <v>1461000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1413,19 +1413,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F25" s="18">
-        <v>88840</v>
+        <v>48533</v>
       </c>
       <c r="G25" s="18">
-        <v>2221000</v>
+        <v>1461000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1436,19 +1436,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F26" s="18">
-        <v>88840</v>
+        <v>29540</v>
       </c>
       <c r="G26" s="18">
-        <v>2221000</v>
+        <v>1660000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1459,19 +1459,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F27" s="18">
-        <v>88840</v>
+        <v>15640</v>
       </c>
       <c r="G27" s="18">
-        <v>2221000</v>
+        <v>964875</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1482,19 +1482,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F28" s="18">
-        <v>88840</v>
+        <v>59080</v>
       </c>
       <c r="G28" s="18">
-        <v>2221000</v>
+        <v>1660000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1505,19 +1505,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F29" s="18">
-        <v>88840</v>
+        <v>31280</v>
       </c>
       <c r="G29" s="18">
-        <v>2221000</v>
+        <v>964875</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1528,19 +1528,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F30" s="18">
-        <v>88840</v>
+        <v>59080</v>
       </c>
       <c r="G30" s="18">
-        <v>2221000</v>
+        <v>1660000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1551,19 +1551,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F31" s="18">
-        <v>88840</v>
+        <v>31280</v>
       </c>
       <c r="G31" s="18">
-        <v>2221000</v>
+        <v>964875</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1574,19 +1574,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F32" s="18">
-        <v>88840</v>
+        <v>59080</v>
       </c>
       <c r="G32" s="18">
-        <v>2221000</v>
+        <v>1660000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1597,19 +1597,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>31</v>
-      </c>
       <c r="E33" s="16" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F33" s="18">
-        <v>33200</v>
+        <v>59080</v>
       </c>
       <c r="G33" s="18">
-        <v>830000</v>
+        <v>1660000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1620,19 +1620,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F34" s="18">
-        <v>33200</v>
+        <v>27667</v>
       </c>
       <c r="G34" s="18">
-        <v>830000</v>
+        <v>878000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1643,13 +1643,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F35" s="18">
         <v>33200</v>
@@ -1666,19 +1666,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>31</v>
-      </c>
       <c r="E36" s="16" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F36" s="18">
-        <v>33200</v>
+        <v>59080</v>
       </c>
       <c r="G36" s="18">
-        <v>830000</v>
+        <v>1660000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1689,16 +1689,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F37" s="18">
-        <v>33200</v>
+        <v>27667</v>
       </c>
       <c r="G37" s="18">
         <v>830000</v>
@@ -1712,19 +1712,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F38" s="18">
-        <v>36360</v>
+        <v>27667</v>
       </c>
       <c r="G38" s="18">
-        <v>964000</v>
+        <v>878000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1735,19 +1735,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F39" s="18">
-        <v>33200</v>
+        <v>33072</v>
       </c>
       <c r="G39" s="18">
-        <v>830000</v>
+        <v>1378000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1758,16 +1758,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="F40" s="18">
-        <v>33200</v>
+        <v>27667</v>
       </c>
       <c r="G40" s="18">
         <v>830000</v>
@@ -1781,13 +1781,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="F41" s="18">
         <v>33200</v>
@@ -1804,19 +1804,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F42" s="18">
-        <v>33200</v>
+        <v>59080</v>
       </c>
       <c r="G42" s="18">
-        <v>830000</v>
+        <v>1660000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1827,13 +1827,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="F43" s="18">
         <v>33200</v>
@@ -1850,13 +1850,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="F44" s="18">
         <v>33200</v>
@@ -1873,13 +1873,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F45" s="18">
         <v>33200</v>
@@ -1896,19 +1896,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="F46" s="18">
-        <v>33200</v>
+        <v>27560</v>
       </c>
       <c r="G46" s="18">
-        <v>830000</v>
+        <v>1378000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1919,19 +1919,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="F47" s="18">
-        <v>33200</v>
+        <v>59080</v>
       </c>
       <c r="G47" s="18">
-        <v>830000</v>
+        <v>1660000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1942,13 +1942,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F48" s="18">
         <v>33200</v>
@@ -1965,19 +1965,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="F49" s="18">
-        <v>33200</v>
+        <v>88840</v>
       </c>
       <c r="G49" s="18">
-        <v>830000</v>
+        <v>2221000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1988,19 +1988,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="F50" s="18">
-        <v>55120</v>
+        <v>33200</v>
       </c>
       <c r="G50" s="18">
-        <v>1378000</v>
+        <v>830000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -2011,19 +2011,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="F51" s="18">
-        <v>55120</v>
+        <v>33200</v>
       </c>
       <c r="G51" s="18">
-        <v>1378000</v>
+        <v>830000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2034,13 +2034,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="F52" s="18">
         <v>55120</v>
@@ -2057,19 +2057,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F53" s="18">
-        <v>27560</v>
+        <v>59080</v>
       </c>
       <c r="G53" s="18">
-        <v>1378000</v>
+        <v>1660000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2080,19 +2080,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F54" s="18">
-        <v>5213</v>
+        <v>65390</v>
       </c>
       <c r="G54" s="18">
-        <v>795400</v>
+        <v>3713000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2103,19 +2103,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F55" s="18">
-        <v>23982</v>
+        <v>88840</v>
       </c>
       <c r="G55" s="18">
-        <v>795400</v>
+        <v>2221000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2126,19 +2126,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="F56" s="18">
-        <v>48533</v>
+        <v>33200</v>
       </c>
       <c r="G56" s="18">
-        <v>1461000</v>
+        <v>830000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2149,19 +2149,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="F57" s="18">
-        <v>31280</v>
+        <v>33200</v>
       </c>
       <c r="G57" s="18">
-        <v>782000</v>
+        <v>830000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2172,19 +2172,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="F58" s="18">
-        <v>36560</v>
+        <v>55120</v>
       </c>
       <c r="G58" s="18">
-        <v>914000</v>
+        <v>1378000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2195,19 +2195,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F59" s="18">
-        <v>26067</v>
+        <v>59080</v>
       </c>
       <c r="G59" s="18">
-        <v>782000</v>
+        <v>1660000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2218,19 +2218,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F60" s="18">
-        <v>31280</v>
+        <v>55120</v>
       </c>
       <c r="G60" s="18">
-        <v>782000</v>
+        <v>1378000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2241,19 +2241,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F61" s="18">
-        <v>30238</v>
+        <v>140120</v>
       </c>
       <c r="G61" s="18">
-        <v>782000</v>
+        <v>3713000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2264,19 +2264,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F62" s="18">
-        <v>48533</v>
+        <v>88840</v>
       </c>
       <c r="G62" s="18">
-        <v>1461000</v>
+        <v>2221000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2287,19 +2287,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="F63" s="18">
-        <v>59080</v>
+        <v>33200</v>
       </c>
       <c r="G63" s="18">
-        <v>1660000</v>
+        <v>830000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2310,19 +2310,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="F64" s="18">
-        <v>59080</v>
+        <v>33200</v>
       </c>
       <c r="G64" s="18">
-        <v>1660000</v>
+        <v>830000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2333,19 +2333,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="F65" s="18">
-        <v>59080</v>
+        <v>55120</v>
       </c>
       <c r="G65" s="18">
-        <v>1660000</v>
+        <v>1378000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2356,13 +2356,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="F66" s="18">
         <v>59080</v>
@@ -2379,19 +2379,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="F67" s="18">
-        <v>59080</v>
+        <v>55120</v>
       </c>
       <c r="G67" s="18">
-        <v>1660000</v>
+        <v>1378000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2402,19 +2402,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="F68" s="18">
-        <v>59080</v>
+        <v>140120</v>
       </c>
       <c r="G68" s="18">
-        <v>1660000</v>
+        <v>3713000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2425,19 +2425,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D69" s="17" t="s">
-        <v>59</v>
-      </c>
       <c r="E69" s="16" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="F69" s="18">
-        <v>59080</v>
+        <v>88840</v>
       </c>
       <c r="G69" s="18">
-        <v>1660000</v>
+        <v>2221000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2448,19 +2448,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="F70" s="18">
-        <v>59080</v>
+        <v>33200</v>
       </c>
       <c r="G70" s="18">
-        <v>1660000</v>
+        <v>830000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2471,19 +2471,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F71" s="18">
-        <v>59080</v>
+        <v>33200</v>
       </c>
       <c r="G71" s="18">
-        <v>1660000</v>
+        <v>830000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2494,13 +2494,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="F72" s="18">
         <v>59080</v>
@@ -2517,19 +2517,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="F73" s="18">
-        <v>59080</v>
+        <v>55120</v>
       </c>
       <c r="G73" s="18">
-        <v>1660000</v>
+        <v>1378000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2540,19 +2540,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F74" s="18">
-        <v>59080</v>
+        <v>140120</v>
       </c>
       <c r="G74" s="18">
-        <v>1660000</v>
+        <v>3713000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2563,19 +2563,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D75" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D75" s="17" t="s">
-        <v>59</v>
-      </c>
       <c r="E75" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F75" s="18">
-        <v>59080</v>
+        <v>88840</v>
       </c>
       <c r="G75" s="18">
-        <v>1660000</v>
+        <v>2221000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2586,19 +2586,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F76" s="18">
-        <v>59080</v>
+        <v>33200</v>
       </c>
       <c r="G76" s="18">
-        <v>1660000</v>
+        <v>830000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2609,13 +2609,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F77" s="18">
         <v>59080</v>
@@ -2632,19 +2632,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F78" s="18">
-        <v>29540</v>
+        <v>55120</v>
       </c>
       <c r="G78" s="18">
-        <v>1660000</v>
+        <v>1378000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2655,19 +2655,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E79" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D79" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>62</v>
-      </c>
       <c r="F79" s="18">
-        <v>31280</v>
+        <v>140120</v>
       </c>
       <c r="G79" s="18">
-        <v>964875</v>
+        <v>3713000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2678,19 +2678,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D80" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E80" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E80" s="16" t="s">
-        <v>63</v>
-      </c>
       <c r="F80" s="18">
-        <v>31280</v>
+        <v>88840</v>
       </c>
       <c r="G80" s="18">
-        <v>964875</v>
+        <v>2221000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2701,19 +2701,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D81" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E81" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E81" s="16" t="s">
-        <v>64</v>
-      </c>
       <c r="F81" s="18">
-        <v>15640</v>
+        <v>33200</v>
       </c>
       <c r="G81" s="18">
-        <v>964875</v>
+        <v>830000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2724,19 +2724,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F82" s="18">
-        <v>27667</v>
+        <v>59080</v>
       </c>
       <c r="G82" s="18">
-        <v>878000</v>
+        <v>1660000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2747,19 +2747,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="F83" s="18">
-        <v>33200</v>
+        <v>55120</v>
       </c>
       <c r="G83" s="18">
-        <v>830000</v>
+        <v>1378000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2770,19 +2770,19 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="F84" s="18">
-        <v>33200</v>
+        <v>140120</v>
       </c>
       <c r="G84" s="18">
-        <v>830000</v>
+        <v>3713000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2793,19 +2793,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="F85" s="18">
-        <v>27667</v>
+        <v>88840</v>
       </c>
       <c r="G85" s="18">
-        <v>830000</v>
+        <v>2221000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2816,19 +2816,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="F86" s="18">
-        <v>27667</v>
+        <v>33200</v>
       </c>
       <c r="G86" s="18">
-        <v>878000</v>
+        <v>830000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2839,19 +2839,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="F87" s="18">
-        <v>55120</v>
+        <v>59080</v>
       </c>
       <c r="G87" s="18">
-        <v>1378000</v>
+        <v>1660000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2862,13 +2862,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="F88" s="18">
         <v>55120</v>
@@ -2885,19 +2885,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="F89" s="18">
-        <v>55120</v>
+        <v>140120</v>
       </c>
       <c r="G89" s="18">
-        <v>1378000</v>
+        <v>3713000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2908,19 +2908,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="F90" s="18">
-        <v>55120</v>
+        <v>88840</v>
       </c>
       <c r="G90" s="18">
-        <v>1378000</v>
+        <v>2221000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2931,19 +2931,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="F91" s="18">
-        <v>55120</v>
+        <v>36360</v>
       </c>
       <c r="G91" s="18">
-        <v>1378000</v>
+        <v>964000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2954,19 +2954,19 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="F92" s="18">
-        <v>55120</v>
+        <v>33200</v>
       </c>
       <c r="G92" s="18">
-        <v>1378000</v>
+        <v>830000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -2977,19 +2977,19 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="F93" s="18">
-        <v>55120</v>
+        <v>59080</v>
       </c>
       <c r="G93" s="18">
-        <v>1378000</v>
+        <v>1660000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -3000,13 +3000,13 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="F94" s="18">
         <v>55120</v>
@@ -3023,19 +3023,19 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="F95" s="18">
-        <v>55120</v>
+        <v>140120</v>
       </c>
       <c r="G95" s="18">
-        <v>1378000</v>
+        <v>3713000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3046,19 +3046,19 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="F96" s="18">
-        <v>55120</v>
+        <v>88840</v>
       </c>
       <c r="G96" s="18">
-        <v>1378000</v>
+        <v>2221000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3069,13 +3069,13 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="F97" s="18">
         <v>55120</v>
@@ -3092,19 +3092,19 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="F98" s="18">
-        <v>55120</v>
+        <v>88840</v>
       </c>
       <c r="G98" s="18">
-        <v>1378000</v>
+        <v>2221000</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
@@ -3115,13 +3115,13 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="F99" s="18">
         <v>55120</v>
@@ -3138,19 +3138,19 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E100" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D100" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E100" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="F100" s="18">
-        <v>55120</v>
+        <v>88840</v>
       </c>
       <c r="G100" s="18">
-        <v>1378000</v>
+        <v>2221000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3161,16 +3161,16 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E101" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D101" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>38</v>
-      </c>
       <c r="F101" s="18">
-        <v>33072</v>
+        <v>55120</v>
       </c>
       <c r="G101" s="18">
         <v>1378000</v>
@@ -3184,19 +3184,19 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F102" s="18">
-        <v>27667</v>
+        <v>88840</v>
       </c>
       <c r="G102" s="18">
-        <v>830000</v>
+        <v>2221000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3207,19 +3207,19 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="F103" s="18">
-        <v>140120</v>
+        <v>55120</v>
       </c>
       <c r="G103" s="18">
-        <v>3713000</v>
+        <v>1378000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3230,19 +3230,19 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="F104" s="18">
-        <v>140120</v>
+        <v>88840</v>
       </c>
       <c r="G104" s="18">
-        <v>3713000</v>
+        <v>2221000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3253,19 +3253,19 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="F105" s="18">
-        <v>140120</v>
+        <v>55120</v>
       </c>
       <c r="G105" s="18">
-        <v>3713000</v>
+        <v>1378000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3276,19 +3276,19 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="F106" s="18">
-        <v>140120</v>
+        <v>88840</v>
       </c>
       <c r="G106" s="18">
-        <v>3713000</v>
+        <v>2221000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
@@ -3299,19 +3299,19 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="F107" s="18">
-        <v>140120</v>
+        <v>55120</v>
       </c>
       <c r="G107" s="18">
-        <v>3713000</v>
+        <v>1378000</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3322,19 +3322,19 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E108" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D108" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E108" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="F108" s="18">
-        <v>140120</v>
+        <v>88840</v>
       </c>
       <c r="G108" s="18">
-        <v>3713000</v>
+        <v>2221000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3345,19 +3345,19 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E109" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D109" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E109" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="F109" s="18">
-        <v>140120</v>
+        <v>55120</v>
       </c>
       <c r="G109" s="18">
-        <v>3713000</v>
+        <v>1378000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
@@ -3368,19 +3368,19 @@
         <v>8</v>
       </c>
       <c r="C110" s="22" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="D110" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E110" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="E110" s="22" t="s">
-        <v>29</v>
-      </c>
       <c r="F110" s="24">
-        <v>65390</v>
+        <v>88840</v>
       </c>
       <c r="G110" s="24">
-        <v>3713000</v>
+        <v>2221000</v>
       </c>
       <c r="H110" s="25"/>
       <c r="I110" s="25"/>
